--- a/fhir/ig/tei/0.2.1/CodeSystem-CSTituloProfesional.xlsx
+++ b/fhir/ig/tei/0.2.1/CodeSystem-CSTituloProfesional.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="102">
   <si>
     <t>Property</t>
   </si>
@@ -661,7 +661,9 @@
       <c r="C2" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" t="s" s="2">
+        <v>41</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
@@ -673,7 +675,9 @@
       <c r="C3" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" t="s" s="2">
+        <v>43</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
@@ -685,7 +689,9 @@
       <c r="C4" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" t="s" s="2">
+        <v>45</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
@@ -697,7 +703,9 @@
       <c r="C5" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" t="s" s="2">
+        <v>47</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
@@ -709,7 +717,9 @@
       <c r="C6" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" t="s" s="2">
+        <v>49</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
@@ -721,7 +731,9 @@
       <c r="C7" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" t="s" s="2">
+        <v>51</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
@@ -733,7 +745,9 @@
       <c r="C8" t="s" s="2">
         <v>53</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" t="s" s="2">
+        <v>53</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
@@ -745,7 +759,9 @@
       <c r="C9" t="s" s="2">
         <v>55</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" t="s" s="2">
+        <v>55</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
@@ -757,7 +773,9 @@
       <c r="C10" t="s" s="2">
         <v>57</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D10" t="s" s="2">
+        <v>57</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
@@ -769,7 +787,9 @@
       <c r="C11" t="s" s="2">
         <v>59</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" t="s" s="2">
+        <v>59</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
@@ -781,7 +801,9 @@
       <c r="C12" t="s" s="2">
         <v>61</v>
       </c>
-      <c r="D12" s="2"/>
+      <c r="D12" t="s" s="2">
+        <v>61</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
@@ -793,7 +815,9 @@
       <c r="C13" t="s" s="2">
         <v>63</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" t="s" s="2">
+        <v>63</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
@@ -805,7 +829,9 @@
       <c r="C14" t="s" s="2">
         <v>65</v>
       </c>
-      <c r="D14" s="2"/>
+      <c r="D14" t="s" s="2">
+        <v>65</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
@@ -817,7 +843,9 @@
       <c r="C15" t="s" s="2">
         <v>67</v>
       </c>
-      <c r="D15" s="2"/>
+      <c r="D15" t="s" s="2">
+        <v>67</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
@@ -829,7 +857,9 @@
       <c r="C16" t="s" s="2">
         <v>69</v>
       </c>
-      <c r="D16" s="2"/>
+      <c r="D16" t="s" s="2">
+        <v>69</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
@@ -841,7 +871,9 @@
       <c r="C17" t="s" s="2">
         <v>71</v>
       </c>
-      <c r="D17" s="2"/>
+      <c r="D17" t="s" s="2">
+        <v>71</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
@@ -853,7 +885,9 @@
       <c r="C18" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="D18" s="2"/>
+      <c r="D18" t="s" s="2">
+        <v>73</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
@@ -865,7 +899,9 @@
       <c r="C19" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="D19" s="2"/>
+      <c r="D19" t="s" s="2">
+        <v>75</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
@@ -877,7 +913,9 @@
       <c r="C20" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="D20" s="2"/>
+      <c r="D20" t="s" s="2">
+        <v>77</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
@@ -889,7 +927,9 @@
       <c r="C21" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="D21" s="2"/>
+      <c r="D21" t="s" s="2">
+        <v>79</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
@@ -901,7 +941,9 @@
       <c r="C22" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="D22" s="2"/>
+      <c r="D22" t="s" s="2">
+        <v>81</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
@@ -913,7 +955,9 @@
       <c r="C23" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="D23" s="2"/>
+      <c r="D23" t="s" s="2">
+        <v>83</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
@@ -925,7 +969,9 @@
       <c r="C24" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="D24" s="2"/>
+      <c r="D24" t="s" s="2">
+        <v>85</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
@@ -937,7 +983,9 @@
       <c r="C25" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" t="s" s="2">
+        <v>87</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
@@ -949,7 +997,9 @@
       <c r="C26" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="D26" s="2"/>
+      <c r="D26" t="s" s="2">
+        <v>89</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
@@ -961,7 +1011,9 @@
       <c r="C27" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="D27" s="2"/>
+      <c r="D27" t="s" s="2">
+        <v>91</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
@@ -973,7 +1025,9 @@
       <c r="C28" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="D28" s="2"/>
+      <c r="D28" t="s" s="2">
+        <v>93</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
@@ -985,7 +1039,9 @@
       <c r="C29" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="D29" s="2"/>
+      <c r="D29" t="s" s="2">
+        <v>95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
@@ -997,7 +1053,9 @@
       <c r="C30" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="D30" s="2"/>
+      <c r="D30" t="s" s="2">
+        <v>97</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
@@ -1009,7 +1067,9 @@
       <c r="C31" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="D31" s="2"/>
+      <c r="D31" t="s" s="2">
+        <v>99</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
@@ -1021,7 +1081,9 @@
       <c r="C32" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="D32" s="2"/>
+      <c r="D32" t="s" s="2">
+        <v>101</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
